--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,317 +436,362 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>지원번호</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>학교</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>키</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>국어</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>영어</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>과학</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>사회</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SW특기</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1번</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>강나래</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>구로고</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>197</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>90</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>85</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>100</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>95</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>85</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2번</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>강태원</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>구로고</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>184</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>40</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>35</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>50</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>55</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>25</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Java</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3번</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>강호림</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>구로고</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>168</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>80</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>75</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>70</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>80</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>75</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Javascript</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4번</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>김수찬</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>구로고</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>187</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>40</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>60</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>70</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>75</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>80</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5번</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>김재욱</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>구로고</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>188</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>20</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>10</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>35</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>10</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6번</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>박동현</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>디지털고</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>202</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>80</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>100</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>95</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>85</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>80</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7번</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>박혜정</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>디지털고</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>188</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>55</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>65</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>45</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>40</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>35</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>PYTHON</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8번</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>승근열</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>디지털고</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>190</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>100</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>85</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>90</v>
-      </c>
-      <c r="G9" t="n">
-        <v>95</v>
       </c>
       <c r="H9" t="n">
         <v>95</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>95</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>C#</t>
         </is>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>SW특기</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>학년</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>총합</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>결과</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -524,6 +539,17 @@
           <t>Python</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>455</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -564,6 +590,17 @@
           <t>Java</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>205</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,6 +641,17 @@
           <t>Javascript</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>380</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -640,6 +688,17 @@
         <v>80</v>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>325</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -676,6 +735,17 @@
         <v>10</v>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>90</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -716,6 +786,17 @@
           <t>C</t>
         </is>
       </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>440</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -756,6 +837,17 @@
           <t>PYTHON</t>
         </is>
       </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>240</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -794,6 +886,17 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>C#</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>465</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/score.xlsx
+++ b/score.xlsx
@@ -451,52 +451,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>학년</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>키</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>국어</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>영어</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>과학</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>사회</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>총합</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>결과</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>SW특기</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>학년</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>총합</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>결과</t>
         </is>
       </c>
     </row>
@@ -517,37 +517,37 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
         <v>197</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>90</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>85</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>100</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>95</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>85</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="n">
+        <v>455</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Python</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>455</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -568,37 +568,37 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
         <v>184</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>40</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>35</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>50</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>55</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>25</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="n">
+        <v>205</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Java</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>205</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -619,37 +619,37 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
         <v>168</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>80</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>75</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>70</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>80</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>75</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>380</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Javascript</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>380</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -670,35 +670,35 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
         <v>187</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>40</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>60</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>70</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>75</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>80</v>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
         <v>325</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -717,35 +717,35 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
         <v>188</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>20</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>10</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>35</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>10</v>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
         <v>90</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -764,37 +764,37 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
         <v>202</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>80</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>100</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>95</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>85</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>80</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>440</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>C</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>440</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -815,37 +815,37 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
         <v>188</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>55</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>65</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>45</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>40</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>35</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="n">
+        <v>240</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>PYTHON</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>240</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -866,37 +866,37 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
         <v>190</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>100</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>85</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>90</v>
-      </c>
-      <c r="H9" t="n">
-        <v>95</v>
       </c>
       <c r="I9" t="n">
         <v>95</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>465</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>C#</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>465</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
